--- a/FALCON/ExampleDatasets/Apoptosis_meas.xlsx
+++ b/FALCON/ExampleDatasets/Apoptosis_meas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panuwat.trairatphisa\Desktop\FalconV1p2_PT\ExampleDatasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philippe.lucarelli\Desktop\FALCON-annotation\FALCON-annotation\FALCON\ExampleDatasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Housekeeping</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>FASL</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>UV2</t>
   </si>
 </sst>
 </file>
@@ -391,56 +400,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -469,16 +483,19 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -504,19 +521,22 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -539,22 +559,25 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -574,13 +597,16 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -589,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -609,13 +635,16 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -627,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -642,6 +671,9 @@
         <v>0</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
     </row>
@@ -773,7 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
